--- a/pangea/estructura_arbol_form.xlsx
+++ b/pangea/estructura_arbol_form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\CARPETAS_TRABAJO\vhernandez\repositorios_git\cap2\pangea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB0285F-194D-4E2C-931D-51AC88B6767D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E39FDD-07AC-4963-9BDC-546F89D657D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15750" xr2:uid="{C1A7B56B-F037-4F1B-9AAD-12D906F560CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C1A7B56B-F037-4F1B-9AAD-12D906F560CB}"/>
   </bookViews>
   <sheets>
     <sheet name="estructura" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
   <si>
     <t>nombre</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>Longitud de obra de obras lineales</t>
+  </si>
+  <si>
+    <t>tag-url</t>
+  </si>
+  <si>
+    <t>localizacion</t>
+  </si>
+  <si>
+    <t>actividades</t>
+  </si>
+  <si>
+    <t>generales</t>
   </si>
 </sst>
 </file>
@@ -483,14 +495,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E04A6F3-6C21-40AB-ADBD-513C0F77B1AF}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="72" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -507,6 +521,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -521,6 +538,9 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -535,6 +555,9 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -549,6 +572,9 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -563,6 +589,9 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -578,6 +607,9 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -593,6 +625,9 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -608,6 +643,9 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -623,6 +661,9 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -638,6 +679,9 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -653,6 +697,9 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -668,6 +715,9 @@
       <c r="D12" t="s">
         <v>5</v>
       </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -682,6 +732,9 @@
       <c r="D13" t="s">
         <v>5</v>
       </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -696,6 +749,9 @@
       <c r="D14" t="s">
         <v>5</v>
       </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -710,6 +766,9 @@
       <c r="D15" t="s">
         <v>5</v>
       </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -724,8 +783,11 @@
       <c r="D16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -738,8 +800,11 @@
       <c r="D17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -752,8 +817,11 @@
       <c r="D18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -766,8 +834,11 @@
       <c r="D19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -780,8 +851,11 @@
       <c r="D20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -794,8 +868,11 @@
       <c r="D21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -808,8 +885,11 @@
       <c r="D22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -821,6 +901,9 @@
       </c>
       <c r="D23" t="s">
         <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/pangea/estructura_arbol_form.xlsx
+++ b/pangea/estructura_arbol_form.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\CARPETAS_TRABAJO\vhernandez\repositorios_git\cap2\pangea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E39FDD-07AC-4963-9BDC-546F89D657D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785032F5-6E0F-49E6-BC1E-240D2974A5C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C1A7B56B-F037-4F1B-9AAD-12D906F560CB}"/>
   </bookViews>
   <sheets>
     <sheet name="estructura" sheetId="1" r:id="rId1"/>
+    <sheet name="estructura (3)" sheetId="3" r:id="rId2"/>
+    <sheet name="estructura (2)" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="50">
   <si>
     <t>nombre</t>
   </si>
@@ -127,6 +129,63 @@
   </si>
   <si>
     <t>generales</t>
+  </si>
+  <si>
+    <t>orden</t>
+  </si>
+  <si>
+    <t>Desmonte, despalme, excavación y relleno por tipo de zonificación</t>
+  </si>
+  <si>
+    <t>Superficie de obras o edificaciones provisionales temporales</t>
+  </si>
+  <si>
+    <t>Insumos requeridos por zonificación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maquinaria por zonificación </t>
+  </si>
+  <si>
+    <t>Personal requerido por zonificación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selección de sistemas constructivos </t>
+  </si>
+  <si>
+    <t>Longitud de obras lineales</t>
+  </si>
+  <si>
+    <t>fig-loc</t>
+  </si>
+  <si>
+    <t>generales-list</t>
+  </si>
+  <si>
+    <t>datosgenerales-list</t>
+  </si>
+  <si>
+    <t>obraslineales-list</t>
+  </si>
+  <si>
+    <t>flor-list</t>
+  </si>
+  <si>
+    <t>aguaresidual-list</t>
+  </si>
+  <si>
+    <t>consumoagua-list</t>
+  </si>
+  <si>
+    <t>maquinaria-list</t>
+  </si>
+  <si>
+    <t>obrastemporales-list</t>
+  </si>
+  <si>
+    <t>actividades-list</t>
+  </si>
+  <si>
+    <t>personal-list</t>
   </si>
 </sst>
 </file>
@@ -493,10 +552,886 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E04A6F3-6C21-40AB-ADBD-513C0F77B1AF}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H5:H8">
+    <sortCondition ref="H4:H8"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17271E7C-B1D2-49EB-AAC9-3F4B49B539B7}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123C05B3-4D87-4AE8-8CA1-C48AF8B66CB6}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,9 +1842,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H6:H9">
-    <sortCondition ref="H5:H9"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/pangea/estructura_arbol_form.xlsx
+++ b/pangea/estructura_arbol_form.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\CARPETAS_TRABAJO\vhernandez\repositorios_git\cap2\pangea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785032F5-6E0F-49E6-BC1E-240D2974A5C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8E9A0F-945A-44A2-996B-0909CE161AE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C1A7B56B-F037-4F1B-9AAD-12D906F560CB}"/>
+    <workbookView xWindow="22944" yWindow="-72" windowWidth="23232" windowHeight="12696" activeTab="2" xr2:uid="{C1A7B56B-F037-4F1B-9AAD-12D906F560CB}"/>
   </bookViews>
   <sheets>
     <sheet name="estructura" sheetId="1" r:id="rId1"/>
     <sheet name="estructura (3)" sheetId="3" r:id="rId2"/>
     <sheet name="estructura (2)" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">estructura!$A$1:$F$21</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -212,12 +215,24 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -232,12 +247,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,16 +571,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E04A6F3-6C21-40AB-ADBD-513C0F77B1AF}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="61.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -589,27 +606,27 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -621,18 +638,18 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -641,19 +658,19 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -662,19 +679,19 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -683,40 +700,40 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -728,16 +745,16 @@
         <v>40</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
+      <c r="A9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -749,57 +766,57 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
+      <c r="A11" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
+      <c r="A12" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -811,15 +828,15 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
+      <c r="A13" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -831,15 +848,15 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -848,15 +865,15 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>36</v>
+      <c r="A15" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -868,10 +885,10 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F15">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -895,11 +912,11 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>22</v>
+      <c r="A17" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -908,18 +925,18 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -928,73 +945,78 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F18">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F20">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F21" xr:uid="{49C0A886-D6CD-481C-B546-3E49BE60C60D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F21">
+      <sortCondition ref="E1:E21"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H5:H8">
     <sortCondition ref="H4:H8"/>
   </sortState>
@@ -1430,7 +1452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123C05B3-4D87-4AE8-8CA1-C48AF8B66CB6}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
